--- a/df_rates_constant_CCDi.xlsx
+++ b/df_rates_constant_CCDi.xlsx
@@ -543,34 +543,34 @@
         <v>200</v>
       </c>
       <c r="D3" t="n">
+        <v>20</v>
+      </c>
+      <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
-        <v>3</v>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios_const_unlabelled/Di_200uM_Di_4GF_1uM_25degC_rep3.txt</t>
+          <t>./CCDi_data/Ratios_const_unlabelled/Di_200uM_Di_4GF_20uM_25degC_rep1.txt</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.002838356649536074</v>
+        <v>0.003289732292830271</v>
       </c>
       <c r="H3" t="n">
-        <v>244.2072178185357</v>
+        <v>210.7001782700096</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9999340657964866</v>
+        <v>0.9975264982604658</v>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="K3" t="n">
-        <v>-100</v>
+        <v>-1</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios_const_unlabelled/Di_200uM_Di_4GF_1uM_25degC_rep3.png</t>
+          <t>./CCDi_data/Ratios_const_unlabelled/Di_200uM_Di_4GF_20uM_25degC_rep1.png</t>
         </is>
       </c>
     </row>
@@ -585,34 +585,34 @@
         <v>200</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios_const_unlabelled/Di_200uM_Di_4GF_1uM_25degC_rep1.txt</t>
+          <t>./CCDi_data/Ratios_const_unlabelled/Di_200uM_Di_4GF_20uM_25degC_rep3.txt</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.002444670658160754</v>
+        <v>0.003200570222300076</v>
       </c>
       <c r="H4" t="n">
-        <v>283.5339714354138</v>
+        <v>216.5699023662783</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9995142045665539</v>
+        <v>0.9999736356080496</v>
       </c>
       <c r="J4" t="n">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="K4" t="n">
-        <v>-1</v>
+        <v>-150</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios_const_unlabelled/Di_200uM_Di_4GF_1uM_25degC_rep1.png</t>
+          <t>./CCDi_data/Ratios_const_unlabelled/Di_200uM_Di_4GF_20uM_25degC_rep3.png</t>
         </is>
       </c>
     </row>
@@ -627,34 +627,34 @@
         <v>200</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios_const_unlabelled/Di_200uM_Di_4GF_5uM_25degC_rep1.txt</t>
+          <t>./CCDi_data/Ratios_const_unlabelled/Di_200uM_Di_4GF_20uM_25degC_rep2.txt</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.002523171190438437</v>
+        <v>0.002847714792340111</v>
       </c>
       <c r="H5" t="n">
-        <v>274.7127040712213</v>
+        <v>243.4047055640538</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9972314091947634</v>
+        <v>0.9872462529215758</v>
       </c>
       <c r="J5" t="n">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="K5" t="n">
         <v>-1</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios_const_unlabelled/Di_200uM_Di_4GF_5uM_25degC_rep1.png</t>
+          <t>./CCDi_data/Ratios_const_unlabelled/Di_200uM_Di_4GF_20uM_25degC_rep2.png</t>
         </is>
       </c>
     </row>
@@ -669,34 +669,34 @@
         <v>200</v>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E6" t="n">
         <v>2</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios_const_unlabelled/Di_200uM_Di_4GF_5uM_25degC_rep2.txt</t>
+          <t>./CCDi_data/Ratios_const_unlabelled/Di_200uM_Di_4GF_10uM_25degC_rep2.txt</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0.002765687667910074</v>
+        <v>0.002980320772793785</v>
       </c>
       <c r="H6" t="n">
-        <v>250.6238099849252</v>
+        <v>232.5746902438899</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9996547354661425</v>
+        <v>0.9999429528518381</v>
       </c>
       <c r="J6" t="n">
         <v>88</v>
       </c>
       <c r="K6" t="n">
-        <v>-700</v>
+        <v>-1</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios_const_unlabelled/Di_200uM_Di_4GF_5uM_25degC_rep2.png</t>
+          <t>./CCDi_data/Ratios_const_unlabelled/Di_200uM_Di_4GF_10uM_25degC_rep2.png</t>
         </is>
       </c>
     </row>
@@ -711,34 +711,34 @@
         <v>200</v>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E7" t="n">
         <v>3</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios_const_unlabelled/Di_200uM_Di_4GF_5uM_25degC_rep3.txt</t>
+          <t>./CCDi_data/Ratios_const_unlabelled/Di_200uM_Di_4GF_10uM_25degC_rep3.txt</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.002767526021865974</v>
+        <v>0.002911287779415057</v>
       </c>
       <c r="H7" t="n">
-        <v>250.4573308736582</v>
+        <v>238.0895442425874</v>
       </c>
       <c r="I7" t="n">
-        <v>0.999839186540542</v>
+        <v>0.9999271722820797</v>
       </c>
       <c r="J7" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K7" t="n">
         <v>-1</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios_const_unlabelled/Di_200uM_Di_4GF_5uM_25degC_rep3.png</t>
+          <t>./CCDi_data/Ratios_const_unlabelled/Di_200uM_Di_4GF_10uM_25degC_rep3.png</t>
         </is>
       </c>
     </row>
@@ -753,34 +753,34 @@
         <v>200</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios_const_unlabelled/Di_200uM_Di_4GF_2uM_25degC_rep2.txt</t>
+          <t>./CCDi_data/Ratios_const_unlabelled/Di_200uM_Di_4GF_10uM_25degC_rep1.txt</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.002662709335728226</v>
+        <v>0.002506967472649618</v>
       </c>
       <c r="H8" t="n">
-        <v>260.3165021654067</v>
+        <v>276.4883023501525</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9936433429891409</v>
+        <v>0.9969115028447103</v>
       </c>
       <c r="J8" t="n">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>-500</v>
+        <v>-1</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios_const_unlabelled/Di_200uM_Di_4GF_2uM_25degC_rep2.png</t>
+          <t>./CCDi_data/Ratios_const_unlabelled/Di_200uM_Di_4GF_10uM_25degC_rep1.png</t>
         </is>
       </c>
     </row>
@@ -798,31 +798,31 @@
         <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios_const_unlabelled/Di_200uM_Di_4GF_2uM_25degC_rep3.txt</t>
+          <t>./CCDi_data/Ratios_const_unlabelled/Di_200uM_Di_4GF_2uM_25degC_rep1.txt</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0.00274506920111174</v>
+        <v>0.002441824134486625</v>
       </c>
       <c r="H9" t="n">
-        <v>252.5062684318573</v>
+        <v>283.8644973527851</v>
       </c>
       <c r="I9" t="n">
-        <v>0.999489238119231</v>
+        <v>0.9931724614142623</v>
       </c>
       <c r="J9" t="n">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="K9" t="n">
-        <v>-1</v>
+        <v>-4500</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios_const_unlabelled/Di_200uM_Di_4GF_2uM_25degC_rep3.png</t>
+          <t>./CCDi_data/Ratios_const_unlabelled/Di_200uM_Di_4GF_2uM_25degC_rep1.png</t>
         </is>
       </c>
     </row>
@@ -840,31 +840,31 @@
         <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios_const_unlabelled/Di_200uM_Di_4GF_2uM_25degC_rep1.txt</t>
+          <t>./CCDi_data/Ratios_const_unlabelled/Di_200uM_Di_4GF_2uM_25degC_rep3.txt</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0.002441824134486625</v>
+        <v>0.00274506920111174</v>
       </c>
       <c r="H10" t="n">
-        <v>283.8644973527851</v>
+        <v>252.5062684318573</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9931724614142623</v>
+        <v>0.999489238119231</v>
       </c>
       <c r="J10" t="n">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K10" t="n">
-        <v>-4500</v>
+        <v>-1</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios_const_unlabelled/Di_200uM_Di_4GF_2uM_25degC_rep1.png</t>
+          <t>./CCDi_data/Ratios_const_unlabelled/Di_200uM_Di_4GF_2uM_25degC_rep3.png</t>
         </is>
       </c>
     </row>
@@ -879,34 +879,34 @@
         <v>200</v>
       </c>
       <c r="D11" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios_const_unlabelled/Di_200uM_Di_4GF_10uM_25degC_rep1.txt</t>
+          <t>./CCDi_data/Ratios_const_unlabelled/Di_200uM_Di_4GF_2uM_25degC_rep2.txt</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0.002506967472649618</v>
+        <v>0.002662709335728226</v>
       </c>
       <c r="H11" t="n">
-        <v>276.4883023501525</v>
+        <v>260.3165021654067</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9969115028447103</v>
+        <v>0.9936433429891409</v>
       </c>
       <c r="J11" t="n">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="K11" t="n">
-        <v>-1</v>
+        <v>-500</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios_const_unlabelled/Di_200uM_Di_4GF_10uM_25degC_rep1.png</t>
+          <t>./CCDi_data/Ratios_const_unlabelled/Di_200uM_Di_4GF_2uM_25degC_rep2.png</t>
         </is>
       </c>
     </row>
@@ -921,34 +921,34 @@
         <v>200</v>
       </c>
       <c r="D12" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E12" t="n">
         <v>3</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios_const_unlabelled/Di_200uM_Di_4GF_10uM_25degC_rep3.txt</t>
+          <t>./CCDi_data/Ratios_const_unlabelled/Di_200uM_Di_4GF_5uM_25degC_rep3.txt</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0.002911287779415057</v>
+        <v>0.002767526021865974</v>
       </c>
       <c r="H12" t="n">
-        <v>238.0895442425874</v>
+        <v>250.4573308736582</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9999271722820797</v>
+        <v>0.999839186540542</v>
       </c>
       <c r="J12" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K12" t="n">
         <v>-1</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios_const_unlabelled/Di_200uM_Di_4GF_10uM_25degC_rep3.png</t>
+          <t>./CCDi_data/Ratios_const_unlabelled/Di_200uM_Di_4GF_5uM_25degC_rep3.png</t>
         </is>
       </c>
     </row>
@@ -963,34 +963,34 @@
         <v>200</v>
       </c>
       <c r="D13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E13" t="n">
         <v>2</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios_const_unlabelled/Di_200uM_Di_4GF_10uM_25degC_rep2.txt</t>
+          <t>./CCDi_data/Ratios_const_unlabelled/Di_200uM_Di_4GF_5uM_25degC_rep2.txt</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0.002980320772793785</v>
+        <v>0.002765687667910074</v>
       </c>
       <c r="H13" t="n">
-        <v>232.5746902438899</v>
+        <v>250.6238099849252</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9999429528518381</v>
+        <v>0.9996547354661425</v>
       </c>
       <c r="J13" t="n">
         <v>88</v>
       </c>
       <c r="K13" t="n">
-        <v>-1</v>
+        <v>-700</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios_const_unlabelled/Di_200uM_Di_4GF_10uM_25degC_rep2.png</t>
+          <t>./CCDi_data/Ratios_const_unlabelled/Di_200uM_Di_4GF_5uM_25degC_rep2.png</t>
         </is>
       </c>
     </row>
@@ -1005,34 +1005,34 @@
         <v>200</v>
       </c>
       <c r="D14" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios_const_unlabelled/Di_200uM_Di_4GF_20uM_25degC_rep2.txt</t>
+          <t>./CCDi_data/Ratios_const_unlabelled/Di_200uM_Di_4GF_5uM_25degC_rep1.txt</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0.002847714792340111</v>
+        <v>0.002523171190438437</v>
       </c>
       <c r="H14" t="n">
-        <v>243.4047055640538</v>
+        <v>274.7127040712213</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9872462529215758</v>
+        <v>0.9972314091947634</v>
       </c>
       <c r="J14" t="n">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="K14" t="n">
         <v>-1</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios_const_unlabelled/Di_200uM_Di_4GF_20uM_25degC_rep2.png</t>
+          <t>./CCDi_data/Ratios_const_unlabelled/Di_200uM_Di_4GF_5uM_25degC_rep1.png</t>
         </is>
       </c>
     </row>
@@ -1047,34 +1047,34 @@
         <v>200</v>
       </c>
       <c r="D15" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios_const_unlabelled/Di_200uM_Di_4GF_20uM_25degC_rep3.txt</t>
+          <t>./CCDi_data/Ratios_const_unlabelled/Di_200uM_Di_4GF_1uM_25degC_rep1.txt</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.003200570222300076</v>
+        <v>0.002444670658160754</v>
       </c>
       <c r="H15" t="n">
-        <v>216.5699023662783</v>
+        <v>283.5339714354138</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9999736356080496</v>
+        <v>0.9995142045665539</v>
       </c>
       <c r="J15" t="n">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="K15" t="n">
-        <v>-150</v>
+        <v>-1</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios_const_unlabelled/Di_200uM_Di_4GF_20uM_25degC_rep3.png</t>
+          <t>./CCDi_data/Ratios_const_unlabelled/Di_200uM_Di_4GF_1uM_25degC_rep1.png</t>
         </is>
       </c>
     </row>
@@ -1089,34 +1089,34 @@
         <v>200</v>
       </c>
       <c r="D16" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios_const_unlabelled/Di_200uM_Di_4GF_20uM_25degC_rep1.txt</t>
+          <t>./CCDi_data/Ratios_const_unlabelled/Di_200uM_Di_4GF_1uM_25degC_rep3.txt</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.003289732292830271</v>
+        <v>0.002838356649536074</v>
       </c>
       <c r="H16" t="n">
-        <v>210.7001782700096</v>
+        <v>244.2072178185357</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9975264982604658</v>
+        <v>0.9999340657964866</v>
       </c>
       <c r="J16" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>-1</v>
+        <v>-100</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios_const_unlabelled/Di_200uM_Di_4GF_20uM_25degC_rep1.png</t>
+          <t>./CCDi_data/Ratios_const_unlabelled/Di_200uM_Di_4GF_1uM_25degC_rep3.png</t>
         </is>
       </c>
     </row>
